--- a/resultados/EGA.xlsx
+++ b/resultados/EGA.xlsx
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -3107,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3171,7 +3171,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -6224,7 +6224,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -7250,7 +7250,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -8097,7 +8097,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -8378,7 +8378,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -8433,7 +8433,7 @@
         <v>3</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -8442,7 +8442,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -8741,7 +8741,7 @@
         <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -8750,7 +8750,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -8803,7 +8803,7 @@
         <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -8812,7 +8812,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
